--- a/labour 1.xlsx
+++ b/labour 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Downloads\ODL Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4F498D-CCD3-4B1F-8785-C584F3C050E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64783851-2354-4501-A4F6-9705F5AB5805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{624B19ED-B370-4128-85D3-00A73DE1ECD3}"/>
   </bookViews>
@@ -509,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F26853D7-4AE1-43EC-9A10-4975AA2DA4F8}">
-  <dimension ref="A1:I855"/>
+  <dimension ref="A1:I635"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A58" activeCellId="10" sqref="A48:XFD48 A49:XFD49 A50:XFD50 A51:XFD51 A52:XFD52 A53:XFD53 A54:XFD54 A55:XFD55 A56:XFD56 A57:XFD57 A58:XFD58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4196,886 +4196,6 @@
     <row r="635" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A635" s="1"/>
       <c r="B635" s="1"/>
-    </row>
-    <row r="636" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A636" s="1"/>
-      <c r="B636" s="1"/>
-    </row>
-    <row r="637" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A637" s="1"/>
-      <c r="B637" s="1"/>
-    </row>
-    <row r="638" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A638" s="1"/>
-      <c r="B638" s="1"/>
-    </row>
-    <row r="639" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A639" s="1"/>
-      <c r="B639" s="1"/>
-    </row>
-    <row r="640" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A640" s="1"/>
-      <c r="B640" s="1"/>
-    </row>
-    <row r="641" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A641" s="1"/>
-      <c r="B641" s="1"/>
-    </row>
-    <row r="642" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A642" s="1"/>
-      <c r="B642" s="1"/>
-    </row>
-    <row r="643" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A643" s="1"/>
-      <c r="B643" s="1"/>
-    </row>
-    <row r="644" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A644" s="1"/>
-      <c r="B644" s="1"/>
-    </row>
-    <row r="645" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A645" s="1"/>
-      <c r="B645" s="1"/>
-    </row>
-    <row r="646" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A646" s="1"/>
-      <c r="B646" s="1"/>
-    </row>
-    <row r="647" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A647" s="1"/>
-      <c r="B647" s="1"/>
-    </row>
-    <row r="648" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A648" s="1"/>
-      <c r="B648" s="1"/>
-    </row>
-    <row r="649" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A649" s="1"/>
-      <c r="B649" s="1"/>
-    </row>
-    <row r="650" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A650" s="1"/>
-      <c r="B650" s="1"/>
-    </row>
-    <row r="651" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A651" s="1"/>
-      <c r="B651" s="1"/>
-    </row>
-    <row r="652" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A652" s="1"/>
-      <c r="B652" s="1"/>
-    </row>
-    <row r="653" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A653" s="1"/>
-      <c r="B653" s="1"/>
-    </row>
-    <row r="654" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A654" s="1"/>
-      <c r="B654" s="1"/>
-    </row>
-    <row r="655" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A655" s="1"/>
-      <c r="B655" s="1"/>
-    </row>
-    <row r="656" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A656" s="1"/>
-      <c r="B656" s="1"/>
-    </row>
-    <row r="657" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A657" s="1"/>
-      <c r="B657" s="1"/>
-    </row>
-    <row r="658" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A658" s="1"/>
-      <c r="B658" s="1"/>
-    </row>
-    <row r="659" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A659" s="1"/>
-      <c r="B659" s="1"/>
-    </row>
-    <row r="660" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A660" s="1"/>
-      <c r="B660" s="1"/>
-    </row>
-    <row r="661" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A661" s="1"/>
-      <c r="B661" s="1"/>
-    </row>
-    <row r="662" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A662" s="1"/>
-      <c r="B662" s="1"/>
-    </row>
-    <row r="663" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A663" s="1"/>
-      <c r="B663" s="1"/>
-    </row>
-    <row r="664" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A664" s="1"/>
-      <c r="B664" s="1"/>
-    </row>
-    <row r="665" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A665" s="1"/>
-      <c r="B665" s="1"/>
-    </row>
-    <row r="666" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A666" s="1"/>
-      <c r="B666" s="1"/>
-    </row>
-    <row r="667" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A667" s="1"/>
-      <c r="B667" s="1"/>
-    </row>
-    <row r="668" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A668" s="1"/>
-      <c r="B668" s="1"/>
-    </row>
-    <row r="669" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A669" s="1"/>
-      <c r="B669" s="1"/>
-    </row>
-    <row r="670" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A670" s="1"/>
-      <c r="B670" s="1"/>
-    </row>
-    <row r="671" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A671" s="1"/>
-      <c r="B671" s="1"/>
-    </row>
-    <row r="672" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A672" s="1"/>
-      <c r="B672" s="1"/>
-    </row>
-    <row r="673" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A673" s="1"/>
-      <c r="B673" s="1"/>
-    </row>
-    <row r="674" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A674" s="1"/>
-      <c r="B674" s="1"/>
-    </row>
-    <row r="675" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A675" s="1"/>
-      <c r="B675" s="1"/>
-    </row>
-    <row r="676" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A676" s="1"/>
-      <c r="B676" s="1"/>
-    </row>
-    <row r="677" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A677" s="1"/>
-      <c r="B677" s="1"/>
-    </row>
-    <row r="678" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A678" s="1"/>
-      <c r="B678" s="1"/>
-    </row>
-    <row r="679" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A679" s="1"/>
-      <c r="B679" s="1"/>
-    </row>
-    <row r="680" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A680" s="1"/>
-      <c r="B680" s="1"/>
-    </row>
-    <row r="681" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A681" s="1"/>
-      <c r="B681" s="1"/>
-    </row>
-    <row r="682" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A682" s="1"/>
-      <c r="B682" s="1"/>
-    </row>
-    <row r="683" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A683" s="1"/>
-      <c r="B683" s="1"/>
-    </row>
-    <row r="684" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A684" s="1"/>
-      <c r="B684" s="1"/>
-    </row>
-    <row r="685" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A685" s="1"/>
-      <c r="B685" s="1"/>
-    </row>
-    <row r="686" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A686" s="1"/>
-      <c r="B686" s="1"/>
-    </row>
-    <row r="687" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A687" s="1"/>
-      <c r="B687" s="1"/>
-    </row>
-    <row r="688" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A688" s="1"/>
-      <c r="B688" s="1"/>
-    </row>
-    <row r="689" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A689" s="1"/>
-      <c r="B689" s="1"/>
-    </row>
-    <row r="690" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A690" s="1"/>
-      <c r="B690" s="1"/>
-    </row>
-    <row r="691" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A691" s="1"/>
-      <c r="B691" s="1"/>
-    </row>
-    <row r="692" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A692" s="1"/>
-      <c r="B692" s="1"/>
-    </row>
-    <row r="693" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A693" s="1"/>
-      <c r="B693" s="1"/>
-    </row>
-    <row r="694" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A694" s="1"/>
-      <c r="B694" s="1"/>
-    </row>
-    <row r="695" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A695" s="1"/>
-      <c r="B695" s="1"/>
-    </row>
-    <row r="696" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A696" s="1"/>
-      <c r="B696" s="1"/>
-    </row>
-    <row r="697" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A697" s="1"/>
-      <c r="B697" s="1"/>
-    </row>
-    <row r="698" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A698" s="1"/>
-      <c r="B698" s="1"/>
-    </row>
-    <row r="699" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A699" s="1"/>
-      <c r="B699" s="1"/>
-    </row>
-    <row r="700" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A700" s="1"/>
-      <c r="B700" s="1"/>
-    </row>
-    <row r="701" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A701" s="1"/>
-      <c r="B701" s="1"/>
-    </row>
-    <row r="702" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A702" s="1"/>
-      <c r="B702" s="1"/>
-    </row>
-    <row r="703" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A703" s="1"/>
-      <c r="B703" s="1"/>
-    </row>
-    <row r="704" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A704" s="1"/>
-      <c r="B704" s="1"/>
-    </row>
-    <row r="705" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A705" s="1"/>
-      <c r="B705" s="1"/>
-    </row>
-    <row r="706" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A706" s="1"/>
-      <c r="B706" s="1"/>
-    </row>
-    <row r="707" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A707" s="1"/>
-      <c r="B707" s="1"/>
-    </row>
-    <row r="708" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A708" s="1"/>
-      <c r="B708" s="1"/>
-    </row>
-    <row r="709" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A709" s="1"/>
-      <c r="B709" s="1"/>
-    </row>
-    <row r="710" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A710" s="1"/>
-      <c r="B710" s="1"/>
-    </row>
-    <row r="711" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A711" s="1"/>
-      <c r="B711" s="1"/>
-    </row>
-    <row r="712" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A712" s="1"/>
-      <c r="B712" s="1"/>
-    </row>
-    <row r="713" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A713" s="1"/>
-      <c r="B713" s="1"/>
-    </row>
-    <row r="714" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A714" s="1"/>
-      <c r="B714" s="1"/>
-    </row>
-    <row r="715" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A715" s="1"/>
-      <c r="B715" s="1"/>
-    </row>
-    <row r="716" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A716" s="1"/>
-      <c r="B716" s="1"/>
-    </row>
-    <row r="717" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A717" s="1"/>
-      <c r="B717" s="1"/>
-    </row>
-    <row r="718" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A718" s="1"/>
-      <c r="B718" s="1"/>
-    </row>
-    <row r="719" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A719" s="1"/>
-      <c r="B719" s="1"/>
-    </row>
-    <row r="720" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A720" s="1"/>
-      <c r="B720" s="1"/>
-    </row>
-    <row r="721" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A721" s="1"/>
-      <c r="B721" s="1"/>
-    </row>
-    <row r="722" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A722" s="1"/>
-      <c r="B722" s="1"/>
-    </row>
-    <row r="723" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A723" s="1"/>
-      <c r="B723" s="1"/>
-    </row>
-    <row r="724" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A724" s="1"/>
-      <c r="B724" s="1"/>
-    </row>
-    <row r="725" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A725" s="1"/>
-      <c r="B725" s="1"/>
-    </row>
-    <row r="726" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A726" s="1"/>
-      <c r="B726" s="1"/>
-    </row>
-    <row r="727" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A727" s="1"/>
-      <c r="B727" s="1"/>
-    </row>
-    <row r="728" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A728" s="1"/>
-      <c r="B728" s="1"/>
-    </row>
-    <row r="729" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A729" s="1"/>
-      <c r="B729" s="1"/>
-    </row>
-    <row r="730" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A730" s="1"/>
-      <c r="B730" s="1"/>
-    </row>
-    <row r="731" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A731" s="1"/>
-      <c r="B731" s="1"/>
-    </row>
-    <row r="732" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A732" s="1"/>
-      <c r="B732" s="1"/>
-    </row>
-    <row r="733" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A733" s="1"/>
-      <c r="B733" s="1"/>
-    </row>
-    <row r="734" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A734" s="1"/>
-      <c r="B734" s="1"/>
-    </row>
-    <row r="735" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A735" s="1"/>
-      <c r="B735" s="1"/>
-    </row>
-    <row r="736" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A736" s="1"/>
-      <c r="B736" s="1"/>
-    </row>
-    <row r="737" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A737" s="1"/>
-      <c r="B737" s="1"/>
-    </row>
-    <row r="738" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A738" s="1"/>
-      <c r="B738" s="1"/>
-    </row>
-    <row r="739" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A739" s="1"/>
-      <c r="B739" s="1"/>
-    </row>
-    <row r="740" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A740" s="1"/>
-      <c r="B740" s="1"/>
-    </row>
-    <row r="741" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A741" s="1"/>
-      <c r="B741" s="1"/>
-    </row>
-    <row r="742" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A742" s="1"/>
-      <c r="B742" s="1"/>
-    </row>
-    <row r="743" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A743" s="1"/>
-      <c r="B743" s="1"/>
-    </row>
-    <row r="744" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A744" s="1"/>
-      <c r="B744" s="1"/>
-    </row>
-    <row r="745" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A745" s="1"/>
-      <c r="B745" s="1"/>
-    </row>
-    <row r="746" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A746" s="1"/>
-      <c r="B746" s="1"/>
-    </row>
-    <row r="747" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A747" s="1"/>
-      <c r="B747" s="1"/>
-    </row>
-    <row r="748" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A748" s="1"/>
-      <c r="B748" s="1"/>
-    </row>
-    <row r="749" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A749" s="1"/>
-      <c r="B749" s="1"/>
-    </row>
-    <row r="750" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A750" s="1"/>
-      <c r="B750" s="1"/>
-    </row>
-    <row r="751" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A751" s="1"/>
-      <c r="B751" s="1"/>
-    </row>
-    <row r="752" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A752" s="1"/>
-      <c r="B752" s="1"/>
-    </row>
-    <row r="753" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A753" s="1"/>
-      <c r="B753" s="1"/>
-    </row>
-    <row r="754" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A754" s="1"/>
-      <c r="B754" s="1"/>
-    </row>
-    <row r="755" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A755" s="1"/>
-      <c r="B755" s="1"/>
-    </row>
-    <row r="756" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A756" s="1"/>
-      <c r="B756" s="1"/>
-    </row>
-    <row r="757" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A757" s="1"/>
-      <c r="B757" s="1"/>
-    </row>
-    <row r="758" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A758" s="1"/>
-      <c r="B758" s="1"/>
-    </row>
-    <row r="759" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A759" s="1"/>
-      <c r="B759" s="1"/>
-    </row>
-    <row r="760" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A760" s="1"/>
-      <c r="B760" s="1"/>
-    </row>
-    <row r="761" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A761" s="1"/>
-      <c r="B761" s="1"/>
-    </row>
-    <row r="762" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A762" s="1"/>
-      <c r="B762" s="1"/>
-    </row>
-    <row r="763" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A763" s="1"/>
-      <c r="B763" s="1"/>
-    </row>
-    <row r="764" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A764" s="1"/>
-      <c r="B764" s="1"/>
-    </row>
-    <row r="765" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A765" s="1"/>
-      <c r="B765" s="1"/>
-    </row>
-    <row r="766" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A766" s="1"/>
-      <c r="B766" s="1"/>
-    </row>
-    <row r="767" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A767" s="1"/>
-      <c r="B767" s="1"/>
-    </row>
-    <row r="768" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A768" s="1"/>
-      <c r="B768" s="1"/>
-    </row>
-    <row r="769" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A769" s="1"/>
-      <c r="B769" s="1"/>
-    </row>
-    <row r="770" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A770" s="1"/>
-      <c r="B770" s="1"/>
-    </row>
-    <row r="771" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A771" s="1"/>
-      <c r="B771" s="1"/>
-    </row>
-    <row r="772" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A772" s="1"/>
-      <c r="B772" s="1"/>
-    </row>
-    <row r="773" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A773" s="1"/>
-      <c r="B773" s="1"/>
-    </row>
-    <row r="774" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A774" s="1"/>
-      <c r="B774" s="1"/>
-    </row>
-    <row r="775" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A775" s="1"/>
-      <c r="B775" s="1"/>
-    </row>
-    <row r="776" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A776" s="1"/>
-      <c r="B776" s="1"/>
-    </row>
-    <row r="777" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A777" s="1"/>
-      <c r="B777" s="1"/>
-    </row>
-    <row r="778" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A778" s="1"/>
-      <c r="B778" s="1"/>
-    </row>
-    <row r="779" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A779" s="1"/>
-      <c r="B779" s="1"/>
-    </row>
-    <row r="780" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A780" s="1"/>
-      <c r="B780" s="1"/>
-    </row>
-    <row r="781" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A781" s="1"/>
-      <c r="B781" s="1"/>
-    </row>
-    <row r="782" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A782" s="1"/>
-      <c r="B782" s="1"/>
-    </row>
-    <row r="783" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A783" s="1"/>
-      <c r="B783" s="1"/>
-    </row>
-    <row r="784" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A784" s="1"/>
-      <c r="B784" s="1"/>
-    </row>
-    <row r="785" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A785" s="1"/>
-      <c r="B785" s="1"/>
-    </row>
-    <row r="786" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A786" s="1"/>
-      <c r="B786" s="1"/>
-    </row>
-    <row r="787" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A787" s="1"/>
-      <c r="B787" s="1"/>
-    </row>
-    <row r="788" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A788" s="1"/>
-      <c r="B788" s="1"/>
-    </row>
-    <row r="789" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A789" s="1"/>
-      <c r="B789" s="1"/>
-    </row>
-    <row r="790" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A790" s="1"/>
-      <c r="B790" s="1"/>
-    </row>
-    <row r="791" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A791" s="1"/>
-      <c r="B791" s="1"/>
-    </row>
-    <row r="792" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A792" s="1"/>
-      <c r="B792" s="1"/>
-    </row>
-    <row r="793" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A793" s="1"/>
-      <c r="B793" s="1"/>
-    </row>
-    <row r="794" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A794" s="1"/>
-      <c r="B794" s="1"/>
-    </row>
-    <row r="795" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A795" s="1"/>
-      <c r="B795" s="1"/>
-    </row>
-    <row r="796" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A796" s="1"/>
-      <c r="B796" s="1"/>
-    </row>
-    <row r="797" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A797" s="1"/>
-      <c r="B797" s="1"/>
-    </row>
-    <row r="798" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A798" s="1"/>
-      <c r="B798" s="1"/>
-    </row>
-    <row r="799" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A799" s="1"/>
-      <c r="B799" s="1"/>
-    </row>
-    <row r="800" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A800" s="1"/>
-      <c r="B800" s="1"/>
-    </row>
-    <row r="801" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A801" s="1"/>
-      <c r="B801" s="1"/>
-    </row>
-    <row r="802" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A802" s="1"/>
-      <c r="B802" s="1"/>
-    </row>
-    <row r="803" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A803" s="1"/>
-      <c r="B803" s="1"/>
-    </row>
-    <row r="804" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A804" s="1"/>
-      <c r="B804" s="1"/>
-    </row>
-    <row r="805" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A805" s="1"/>
-      <c r="B805" s="1"/>
-    </row>
-    <row r="806" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A806" s="1"/>
-      <c r="B806" s="1"/>
-    </row>
-    <row r="807" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A807" s="1"/>
-      <c r="B807" s="1"/>
-    </row>
-    <row r="808" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A808" s="1"/>
-      <c r="B808" s="1"/>
-    </row>
-    <row r="809" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A809" s="1"/>
-      <c r="B809" s="1"/>
-    </row>
-    <row r="810" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A810" s="1"/>
-      <c r="B810" s="1"/>
-    </row>
-    <row r="811" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A811" s="1"/>
-      <c r="B811" s="1"/>
-    </row>
-    <row r="812" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A812" s="1"/>
-      <c r="B812" s="1"/>
-    </row>
-    <row r="813" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A813" s="1"/>
-      <c r="B813" s="1"/>
-    </row>
-    <row r="814" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A814" s="1"/>
-      <c r="B814" s="1"/>
-    </row>
-    <row r="815" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A815" s="1"/>
-      <c r="B815" s="1"/>
-    </row>
-    <row r="816" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A816" s="1"/>
-      <c r="B816" s="1"/>
-    </row>
-    <row r="817" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A817" s="1"/>
-      <c r="B817" s="1"/>
-    </row>
-    <row r="818" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A818" s="1"/>
-      <c r="B818" s="1"/>
-    </row>
-    <row r="819" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A819" s="1"/>
-      <c r="B819" s="1"/>
-    </row>
-    <row r="820" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A820" s="1"/>
-      <c r="B820" s="1"/>
-    </row>
-    <row r="821" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A821" s="1"/>
-      <c r="B821" s="1"/>
-    </row>
-    <row r="822" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A822" s="1"/>
-      <c r="B822" s="1"/>
-    </row>
-    <row r="823" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A823" s="1"/>
-      <c r="B823" s="1"/>
-    </row>
-    <row r="824" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A824" s="1"/>
-      <c r="B824" s="1"/>
-    </row>
-    <row r="825" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A825" s="1"/>
-      <c r="B825" s="1"/>
-    </row>
-    <row r="826" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A826" s="1"/>
-      <c r="B826" s="1"/>
-    </row>
-    <row r="827" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A827" s="1"/>
-      <c r="B827" s="1"/>
-    </row>
-    <row r="828" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A828" s="1"/>
-      <c r="B828" s="1"/>
-    </row>
-    <row r="829" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A829" s="1"/>
-      <c r="B829" s="1"/>
-    </row>
-    <row r="830" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A830" s="1"/>
-      <c r="B830" s="1"/>
-    </row>
-    <row r="831" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A831" s="1"/>
-      <c r="B831" s="1"/>
-    </row>
-    <row r="832" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A832" s="1"/>
-      <c r="B832" s="1"/>
-    </row>
-    <row r="833" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A833" s="1"/>
-      <c r="B833" s="1"/>
-    </row>
-    <row r="834" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A834" s="1"/>
-      <c r="B834" s="1"/>
-    </row>
-    <row r="835" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A835" s="1"/>
-      <c r="B835" s="1"/>
-    </row>
-    <row r="836" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A836" s="1"/>
-      <c r="B836" s="1"/>
-    </row>
-    <row r="837" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A837" s="1"/>
-      <c r="B837" s="1"/>
-    </row>
-    <row r="838" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A838" s="1"/>
-      <c r="B838" s="1"/>
-    </row>
-    <row r="839" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A839" s="1"/>
-      <c r="B839" s="1"/>
-    </row>
-    <row r="840" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A840" s="1"/>
-      <c r="B840" s="1"/>
-    </row>
-    <row r="841" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A841" s="1"/>
-      <c r="B841" s="1"/>
-    </row>
-    <row r="842" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A842" s="1"/>
-      <c r="B842" s="1"/>
-    </row>
-    <row r="843" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A843" s="1"/>
-      <c r="B843" s="1"/>
-    </row>
-    <row r="844" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A844" s="1"/>
-      <c r="B844" s="1"/>
-    </row>
-    <row r="845" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A845" s="1"/>
-      <c r="B845" s="1"/>
-    </row>
-    <row r="846" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A846" s="1"/>
-      <c r="B846" s="1"/>
-    </row>
-    <row r="847" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A847" s="1"/>
-      <c r="B847" s="1"/>
-    </row>
-    <row r="848" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A848" s="1"/>
-      <c r="B848" s="1"/>
-    </row>
-    <row r="849" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A849" s="1"/>
-      <c r="B849" s="1"/>
-    </row>
-    <row r="850" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A850" s="1"/>
-      <c r="B850" s="1"/>
-    </row>
-    <row r="851" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A851" s="1"/>
-      <c r="B851" s="1"/>
-    </row>
-    <row r="852" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A852" s="1"/>
-      <c r="B852" s="1"/>
-    </row>
-    <row r="853" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A853" s="1"/>
-      <c r="B853" s="1"/>
-    </row>
-    <row r="854" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A854" s="1"/>
-      <c r="B854" s="1"/>
-    </row>
-    <row r="855" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A855" s="1"/>
-      <c r="B855" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
